--- a/results/results_etwfe_logit.xlsx
+++ b/results/results_etwfe_logit.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,34 +444,34 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.003598536153156033</v>
+        <v>0.003598536153164791</v>
       </c>
       <c r="E2">
-        <v>0.001171159810606733</v>
+        <v>0.001171159718462062</v>
       </c>
       <c r="F2">
-        <v>3.072626058856792</v>
+        <v>3.072626300612781</v>
       </c>
       <c r="G2">
-        <v>0.002121841929068953</v>
+        <v>0.002121840210276919</v>
       </c>
       <c r="H2">
-        <v>8.880467100908266</v>
+        <v>8.880468269559763</v>
       </c>
       <c r="I2">
-        <v>0.001303105104226085</v>
+        <v>0.001303105284835081</v>
       </c>
       <c r="J2">
-        <v>0.00589396720208598</v>
+        <v>0.005893967021494501</v>
       </c>
       <c r="K2">
-        <v>0.2227928507057052</v>
+        <v>0.2227928507030018</v>
       </c>
       <c r="L2">
-        <v>0.2572860421299634</v>
+        <v>0.2572860421269821</v>
       </c>
       <c r="M2">
-        <v>0.2572860421299634</v>
+        <v>0.2572860421269821</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -494,34 +494,34 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01857951993845212</v>
+        <v>0.01740665458473429</v>
       </c>
       <c r="E3">
-        <v>0.005252957548602792</v>
+        <v>0.009001727616398126</v>
       </c>
       <c r="F3">
-        <v>3.53696365648224</v>
+        <v>1.933701543359877</v>
       </c>
       <c r="G3">
-        <v>0.0004047553593161046</v>
+        <v>0.05314983398380042</v>
       </c>
       <c r="H3">
-        <v>11.27066219634692</v>
+        <v>4.233791004342369</v>
       </c>
       <c r="I3">
-        <v>0.008283912330872835</v>
+        <v>-0.0002364073420456254</v>
       </c>
       <c r="J3">
-        <v>0.0288751275460314</v>
+        <v>0.0350497165115142</v>
       </c>
       <c r="K3">
-        <v>2.144910474912042E-07</v>
+        <v>5.197020994499267e-08</v>
       </c>
       <c r="L3">
-        <v>0.159159885644376</v>
+        <v>0.06105472724528559</v>
       </c>
       <c r="M3">
-        <v>0.159159885644376</v>
+        <v>0.06105472724528559</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -544,34 +544,34 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>-0.01885901232768486</v>
+        <v>-0.01976810263904715</v>
       </c>
       <c r="E4">
-        <v>0.005142649279290964</v>
+        <v>0.004584431411023473</v>
       </c>
       <c r="F4">
-        <v>-3.667178394534621</v>
+        <v>-4.312007502503768</v>
       </c>
       <c r="G4">
-        <v>0.0002452417050532475</v>
+        <v>1.617789430630345e-05</v>
       </c>
       <c r="H4">
-        <v>11.99350803935744</v>
+        <v>15.91561663376088</v>
       </c>
       <c r="I4">
-        <v>-0.02893841970021602</v>
+        <v>-0.0287534230942473</v>
       </c>
       <c r="J4">
-        <v>-0.008779604955153711</v>
+        <v>-0.010782782183847</v>
       </c>
       <c r="K4">
-        <v>0.09514346251790641</v>
+        <v>0.1016063378169145</v>
       </c>
       <c r="L4">
-        <v>0.05475267641325571</v>
+        <v>0.05475267640347568</v>
       </c>
       <c r="M4">
-        <v>0.05475267641325571</v>
+        <v>0.05475267640347568</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -594,34 +594,34 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-0.01213184832686351</v>
+        <v>-0.001854115622268465</v>
       </c>
       <c r="E5">
-        <v>0.005088550810596879</v>
+        <v>0.004103156636481769</v>
       </c>
       <c r="F5">
-        <v>-2.384146052270717</v>
+        <v>-0.4518754184968836</v>
       </c>
       <c r="G5">
-        <v>0.01711880679917588</v>
+        <v>0.6513587339590603</v>
       </c>
       <c r="H5">
-        <v>5.868274042060373</v>
+        <v>0.618475772449283</v>
       </c>
       <c r="I5">
-        <v>-0.02210522464913548</v>
+        <v>-0.009896154852699237</v>
       </c>
       <c r="J5">
-        <v>-0.00215847200459153</v>
+        <v>0.006187923608162308</v>
       </c>
       <c r="K5">
-        <v>0.008898437781586241</v>
+        <v>0.007727125527739709</v>
       </c>
       <c r="L5">
-        <v>2.220446049250313E-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="M5">
-        <v>2.220446049250313E-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -644,34 +644,34 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.01198613798664177</v>
+        <v>-0.001359383267753948</v>
       </c>
       <c r="E6">
-        <v>0.006458935558308847</v>
+        <v>0.003852512306395986</v>
       </c>
       <c r="F6">
-        <v>-1.855745095834354</v>
+        <v>-0.352856307687086</v>
       </c>
       <c r="G6">
-        <v>0.06348989972036062</v>
+        <v>0.7241961679181497</v>
       </c>
       <c r="H6">
-        <v>3.977329090525322</v>
+        <v>0.4655475520695557</v>
       </c>
       <c r="I6">
-        <v>-0.02464541905939222</v>
+        <v>-0.008910168638287417</v>
       </c>
       <c r="J6">
-        <v>0.0006731430861086716</v>
+        <v>0.006191402102779521</v>
       </c>
       <c r="K6">
-        <v>0.09741564470579907</v>
+        <v>0.06895752387973061</v>
       </c>
       <c r="L6">
-        <v>0.140924653008031</v>
+        <v>0.04103534784865207</v>
       </c>
       <c r="M6">
-        <v>0.140924653008031</v>
+        <v>0.04103534784865207</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -694,34 +694,34 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.01398990022076985</v>
+        <v>-0.01792446753391282</v>
       </c>
       <c r="E7">
-        <v>0.008115393491448913</v>
+        <v>0.002716967301966774</v>
       </c>
       <c r="F7">
-        <v>-1.723872075397308</v>
+        <v>-6.597233437788357</v>
       </c>
       <c r="G7">
-        <v>0.08473093945213603</v>
+        <v>4.189009220607713e-11</v>
       </c>
       <c r="H7">
-        <v>3.56096732477767</v>
+        <v>34.47459998397517</v>
       </c>
       <c r="I7">
-        <v>-0.02989577918438048</v>
+        <v>-0.02324962559294065</v>
       </c>
       <c r="J7">
-        <v>0.001915978742840784</v>
+        <v>-0.01259930947488498</v>
       </c>
       <c r="K7">
-        <v>0.0746869254733676</v>
+        <v>0.1143624315108193</v>
       </c>
       <c r="L7">
-        <v>0.05871722203182653</v>
+        <v>0.09747617921993237</v>
       </c>
       <c r="M7">
-        <v>0.05871722203182653</v>
+        <v>0.09747617921993237</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -744,34 +744,34 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>-0.008244135932389814</v>
+        <v>-0.003171213186457059</v>
       </c>
       <c r="E8">
-        <v>0.0049536483732607</v>
+        <v>0.002490219854971745</v>
       </c>
       <c r="F8">
-        <v>-1.664255375268628</v>
+        <v>-1.273467151956766</v>
       </c>
       <c r="G8">
-        <v>0.09606140609770093</v>
+        <v>0.2028523215658193</v>
       </c>
       <c r="H8">
-        <v>3.379899263613166</v>
+        <v>2.30149828116581</v>
       </c>
       <c r="I8">
-        <v>-0.01795310833605621</v>
+        <v>-0.008051954415788234</v>
       </c>
       <c r="J8">
-        <v>0.001464836471276581</v>
+        <v>0.001709528042874116</v>
       </c>
       <c r="K8">
-        <v>0.07426421192710815</v>
+        <v>0.1244204959785371</v>
       </c>
       <c r="L8">
-        <v>0.03706740798676509</v>
+        <v>0.1263346170271511</v>
       </c>
       <c r="M8">
-        <v>0.03706740798676509</v>
+        <v>0.1263346170271511</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -794,34 +794,34 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.005396959726775162</v>
+        <v>0.007330912901650391</v>
       </c>
       <c r="E9">
-        <v>0.003146654096294399</v>
+        <v>0.003195044503645078</v>
       </c>
       <c r="F9">
-        <v>1.715142358078314</v>
+        <v>2.29446347094286</v>
       </c>
       <c r="G9">
-        <v>0.08631912994795367</v>
+        <v>0.02176389098480576</v>
       </c>
       <c r="H9">
-        <v>3.534175866493031</v>
+        <v>5.521919682696689</v>
       </c>
       <c r="I9">
-        <v>-0.0007703689737672886</v>
+        <v>0.001068740745503387</v>
       </c>
       <c r="J9">
-        <v>0.01156428842731761</v>
+        <v>0.01359308505779739</v>
       </c>
       <c r="K9">
-        <v>0.02004214375944153</v>
+        <v>0.1116674504990176</v>
       </c>
       <c r="L9">
-        <v>0.01680428130661594</v>
+        <v>0.05751833883762892</v>
       </c>
       <c r="M9">
-        <v>0.01680428130661594</v>
+        <v>0.05751833883762892</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -844,34 +844,34 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.006959400206013265</v>
+        <v>0.00725864359084199</v>
       </c>
       <c r="E10">
-        <v>0.001742148962221966</v>
+        <v>0.001759380914339076</v>
       </c>
       <c r="F10">
-        <v>3.994721666703592</v>
+        <v>4.125680534376351</v>
       </c>
       <c r="G10">
-        <v>6.477029806565382E-05</v>
+        <v>3.69640083335094e-05</v>
       </c>
       <c r="H10">
-        <v>13.91430809121904</v>
+        <v>14.7235192650496</v>
       </c>
       <c r="I10">
-        <v>0.003544850984354381</v>
+        <v>0.003810320363650253</v>
       </c>
       <c r="J10">
-        <v>0.01037394942767215</v>
+        <v>0.01070696681803373</v>
       </c>
       <c r="K10">
-        <v>0.04155653813375471</v>
+        <v>0.0406883323370688</v>
       </c>
       <c r="L10">
-        <v>0.0367405794134676</v>
+        <v>0.03674057943315551</v>
       </c>
       <c r="M10">
-        <v>0.0367405794134676</v>
+        <v>0.03674057943315551</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -894,34 +894,34 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.001027536835082984</v>
+        <v>0.0007656271057172837</v>
       </c>
       <c r="E11">
-        <v>0.001518449947136891</v>
+        <v>0.001847667532707795</v>
       </c>
       <c r="F11">
-        <v>0.6767011563472691</v>
+        <v>0.4143749306430911</v>
       </c>
       <c r="G11">
-        <v>0.4985955826643365</v>
+        <v>0.6785995456648204</v>
       </c>
       <c r="H11">
-        <v>1.004057993639349</v>
+        <v>0.5593676307496575</v>
       </c>
       <c r="I11">
-        <v>-0.00194857037363207</v>
+        <v>-0.002855734713793976</v>
       </c>
       <c r="J11">
-        <v>0.004003644043798037</v>
+        <v>0.004386988925228543</v>
       </c>
       <c r="K11">
-        <v>2.316461085337538E-09</v>
+        <v>6.423627807883221e-09</v>
       </c>
       <c r="L11">
-        <v>5.8272804861917E-09</v>
+        <v>1.584022135495143e-08</v>
       </c>
       <c r="M11">
-        <v>5.8272804861917E-09</v>
+        <v>1.584022135495143e-08</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -944,34 +944,34 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>-0.008421295503871839</v>
+        <v>-0.004543773428837947</v>
       </c>
       <c r="E12">
-        <v>0.005677747428763786</v>
+        <v>0.002643248850450019</v>
       </c>
       <c r="F12">
-        <v>-1.483210658721641</v>
+        <v>-1.719010840793276</v>
       </c>
       <c r="G12">
-        <v>0.1380184502007795</v>
+        <v>0.08561239797879877</v>
       </c>
       <c r="H12">
-        <v>2.857066956623405</v>
+        <v>3.546036453810118</v>
       </c>
       <c r="I12">
-        <v>-0.01954947597756376</v>
+        <v>-0.009724445977896881</v>
       </c>
       <c r="J12">
-        <v>0.002706884969820076</v>
+        <v>0.0006368991202209875</v>
       </c>
       <c r="K12">
-        <v>0.04225548759617694</v>
+        <v>0.01815151169597811</v>
       </c>
       <c r="L12">
-        <v>0.03661981730461577</v>
+        <v>0.01600068230686532</v>
       </c>
       <c r="M12">
-        <v>0.03661981730461577</v>
+        <v>0.01600068230686532</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -994,34 +994,34 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.0008823055867429476</v>
+        <v>0.0007415416229614216</v>
       </c>
       <c r="E13">
-        <v>0.001170104234700002</v>
+        <v>0.001051586454655561</v>
       </c>
       <c r="F13">
-        <v>0.754040162045186</v>
+        <v>0.7051646773106333</v>
       </c>
       <c r="G13">
-        <v>0.4508251061693448</v>
+        <v>0.4807077604361525</v>
       </c>
       <c r="H13">
-        <v>1.149360234351849</v>
+        <v>1.05676800068474</v>
       </c>
       <c r="I13">
-        <v>-0.001411056571426858</v>
+        <v>-0.00131952995479364</v>
       </c>
       <c r="J13">
-        <v>0.003175667744912753</v>
+        <v>0.002802613200716484</v>
       </c>
       <c r="K13">
-        <v>0.0722408765841218</v>
+        <v>0.07199822903378203</v>
       </c>
       <c r="L13">
-        <v>0.08426133060727743</v>
+        <v>0.0842613306430785</v>
       </c>
       <c r="M13">
-        <v>0.08426133060727743</v>
+        <v>0.0842613306430785</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1044,34 +1044,34 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.001781504840145324</v>
+        <v>0.001781504834367876</v>
       </c>
       <c r="E14">
-        <v>0.001104204055827985</v>
+        <v>0.001104204646001101</v>
       </c>
       <c r="F14">
-        <v>1.613383713583145</v>
+        <v>1.613382846032781</v>
       </c>
       <c r="G14">
-        <v>0.1066611692519028</v>
+        <v>0.1066613576164958</v>
       </c>
       <c r="H14">
-        <v>3.228893046409024</v>
+        <v>3.228890498598738</v>
       </c>
       <c r="I14">
-        <v>-0.000382695340860581</v>
+        <v>-0.0003826965033560811</v>
       </c>
       <c r="J14">
-        <v>0.003945705021151229</v>
+        <v>0.003945706172091833</v>
       </c>
       <c r="K14">
-        <v>0.02506910761896177</v>
+        <v>0.02506910761534342</v>
       </c>
       <c r="L14">
-        <v>0.01742326809674644</v>
+        <v>0.01742326809421202</v>
       </c>
       <c r="M14">
-        <v>0.01742326809674644</v>
+        <v>0.01742326809421202</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1094,34 +1094,34 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-0.001342369009548975</v>
+        <v>-0.004533172155277257</v>
       </c>
       <c r="E15">
-        <v>0.002548540860094409</v>
+        <v>0.001306274288875653</v>
       </c>
       <c r="F15">
-        <v>-0.5267206151441686</v>
+        <v>-3.470306499853935</v>
       </c>
       <c r="G15">
-        <v>0.5983876175463821</v>
+        <v>0.0005198647685545136</v>
       </c>
       <c r="H15">
-        <v>0.7408477730863757</v>
+        <v>10.90957599304337</v>
       </c>
       <c r="I15">
-        <v>-0.006337417308462748</v>
+        <v>-0.007093422715404207</v>
       </c>
       <c r="J15">
-        <v>0.003652679289364797</v>
+        <v>-0.001972921595150306</v>
       </c>
       <c r="K15">
-        <v>0.007566238568141821</v>
+        <v>0.01248898869091968</v>
       </c>
       <c r="L15">
-        <v>5.69864136876022E-10</v>
+        <v>0.0001245519850658086</v>
       </c>
       <c r="M15">
-        <v>5.69864136876022E-10</v>
+        <v>0.0001245519850658086</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1144,34 +1144,34 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>-0.00127814773935974</v>
+        <v>0.0121237859552126</v>
       </c>
       <c r="E16">
-        <v>0.006342283016044332</v>
+        <v>0.002406596889012624</v>
       </c>
       <c r="F16">
-        <v>-0.2015280201350772</v>
+        <v>5.037730253273424</v>
       </c>
       <c r="G16">
-        <v>0.8402857219528457</v>
+        <v>4.710846988747337e-07</v>
       </c>
       <c r="H16">
-        <v>0.2510481246688517</v>
+        <v>21.01751019108076</v>
       </c>
       <c r="I16">
-        <v>-0.0137087940305667</v>
+        <v>0.007406942727441722</v>
       </c>
       <c r="J16">
-        <v>0.01115249855184722</v>
+        <v>0.01684062918298348</v>
       </c>
       <c r="K16">
-        <v>0.1068721651397318</v>
+        <v>0.1880615135007312</v>
       </c>
       <c r="L16">
-        <v>0.243167446758404</v>
+        <v>0.1568873126307765</v>
       </c>
       <c r="M16">
-        <v>0.243167446758404</v>
+        <v>0.1568873126307765</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1194,34 +1194,34 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>-0.0005820577302058692</v>
+        <v>8.085872525632498e-05</v>
       </c>
       <c r="E17">
-        <v>0.004942487691086545</v>
+        <v>0.005984151922967671</v>
       </c>
       <c r="F17">
-        <v>-0.1177661466422208</v>
+        <v>0.01351214446043432</v>
       </c>
       <c r="G17">
-        <v>0.9062529539077627</v>
+        <v>0.9892191966090194</v>
       </c>
       <c r="H17">
-        <v>0.1420143024380717</v>
+        <v>0.01563785820852923</v>
       </c>
       <c r="I17">
-        <v>-0.01026915559876802</v>
+        <v>-0.01164786352177642</v>
       </c>
       <c r="J17">
-        <v>0.009105040138356287</v>
+        <v>0.01180958097228907</v>
       </c>
       <c r="K17">
-        <v>0.2112629571751567</v>
+        <v>0.1976691205969018</v>
       </c>
       <c r="L17">
-        <v>0.198610984742052</v>
+        <v>0.1710379522144804</v>
       </c>
       <c r="M17">
-        <v>0.198610984742052</v>
+        <v>0.1710379522144804</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1244,34 +1244,34 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>-0.008432438239730632</v>
+        <v>-0.008432438239737638</v>
       </c>
       <c r="E18">
-        <v>0.003508565953181139</v>
+        <v>0.003508565715320367</v>
       </c>
       <c r="F18">
-        <v>-2.403385985115977</v>
+        <v>-2.403386148053856</v>
       </c>
       <c r="G18">
-        <v>0.01624403158118841</v>
+        <v>0.01624402434246135</v>
       </c>
       <c r="H18">
-        <v>5.943946452550081</v>
+        <v>5.943947095449469</v>
       </c>
       <c r="I18">
-        <v>-0.01530910114534911</v>
+        <v>-0.01530910067915757</v>
       </c>
       <c r="J18">
-        <v>-0.001555775334112154</v>
+        <v>-0.001555775800317708</v>
       </c>
       <c r="K18">
-        <v>0.02954567992804526</v>
+        <v>0.02954567992834568</v>
       </c>
       <c r="L18">
-        <v>0.01945690499133908</v>
+        <v>0.01945690499153855</v>
       </c>
       <c r="M18">
-        <v>0.01945690499133908</v>
+        <v>0.01945690499153855</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1294,38 +1294,288 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>-0.03062292138889532</v>
+        <v>-0.02542479968263175</v>
       </c>
       <c r="E19">
-        <v>0.004068503491779606</v>
+        <v>0.004004356838269455</v>
       </c>
       <c r="F19">
-        <v>-7.526826866627693</v>
+        <v>-6.349284219540102</v>
       </c>
       <c r="G19">
-        <v>5.198823049305815E-14</v>
+        <v>2.163190522684055e-10</v>
       </c>
       <c r="H19">
-        <v>44.12880827692253</v>
+        <v>32.10612021282629</v>
       </c>
       <c r="I19">
-        <v>-0.0385970417037588</v>
+        <v>-0.03327319486688656</v>
       </c>
       <c r="J19">
-        <v>-0.02264880107403184</v>
+        <v>-0.01757640449837694</v>
       </c>
       <c r="K19">
-        <v>0.03301071364677837</v>
+        <v>0.03249501451831193</v>
       </c>
       <c r="L19">
-        <v>0.008085607606737691</v>
+        <v>0.00808560760672454</v>
       </c>
       <c r="M19">
-        <v>0.008085607606737691</v>
+        <v>0.00808560760672454</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>-0.007616140041746203</v>
+      </c>
+      <c r="E20">
+        <v>0.0002292365150042977</v>
+      </c>
+      <c r="F20">
+        <v>-33.22393922104172</v>
+      </c>
+      <c r="G20">
+        <v>4.857665143970315e-242</v>
+      </c>
+      <c r="H20">
+        <v>801.6263359194093</v>
+      </c>
+      <c r="I20">
+        <v>-0.008065435355096103</v>
+      </c>
+      <c r="J20">
+        <v>-0.007166844728396305</v>
+      </c>
+      <c r="K20">
+        <v>1.957908642261666e-09</v>
+      </c>
+      <c r="L20">
+        <v>3.133321281856142e-10</v>
+      </c>
+      <c r="M20">
+        <v>3.133321281856142e-10</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>TCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>-0.009561419108316474</v>
+      </c>
+      <c r="E21">
+        <v>0.004798777810122569</v>
+      </c>
+      <c r="F21">
+        <v>-1.992469642613492</v>
+      </c>
+      <c r="G21">
+        <v>0.04631955278128942</v>
+      </c>
+      <c r="H21">
+        <v>4.432234865707737</v>
+      </c>
+      <c r="I21">
+        <v>-0.0189668507859667</v>
+      </c>
+      <c r="J21">
+        <v>-0.000155987430666249</v>
+      </c>
+      <c r="K21">
+        <v>0.03035983091234202</v>
+      </c>
+      <c r="L21">
+        <v>0.1170750172374756</v>
+      </c>
+      <c r="M21">
+        <v>0.1170750172374756</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>-0.07008429937794744</v>
+      </c>
+      <c r="E22">
+        <v>0.003792191496002006</v>
+      </c>
+      <c r="F22">
+        <v>-18.48121315915486</v>
+      </c>
+      <c r="G22">
+        <v>2.925292363823631e-76</v>
+      </c>
+      <c r="H22">
+        <v>250.9179543916118</v>
+      </c>
+      <c r="I22">
+        <v>-0.07751685813259043</v>
+      </c>
+      <c r="J22">
+        <v>-0.06265174062330445</v>
+      </c>
+      <c r="K22">
+        <v>2.239543167218279e-10</v>
+      </c>
+      <c r="L22">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="M22">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>TON</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.01455538430471847</v>
+      </c>
+      <c r="E23">
+        <v>0.004741850169316111</v>
+      </c>
+      <c r="F23">
+        <v>3.069558038527756</v>
+      </c>
+      <c r="G23">
+        <v>0.002143757481842043</v>
+      </c>
+      <c r="H23">
+        <v>8.865642578275727</v>
+      </c>
+      <c r="I23">
+        <v>0.005261528752773735</v>
+      </c>
+      <c r="J23">
+        <v>0.0238492398566632</v>
+      </c>
+      <c r="K23">
+        <v>0.03615919819546681</v>
+      </c>
+      <c r="L23">
+        <v>0.03615919819546681</v>
+      </c>
+      <c r="M23">
+        <v>0.03615919819546681</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>VUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>cyclone2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>mean(1) - mean(0)</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-0.009177054415216873</v>
+      </c>
+      <c r="E24">
+        <v>0.002780065856330688</v>
+      </c>
+      <c r="F24">
+        <v>-3.301020511553402</v>
+      </c>
+      <c r="G24">
+        <v>0.0009633383957925647</v>
+      </c>
+      <c r="H24">
+        <v>10.01966971110126</v>
+      </c>
+      <c r="I24">
+        <v>-0.01462588336827452</v>
+      </c>
+      <c r="J24">
+        <v>-0.003728225462159222</v>
+      </c>
+      <c r="K24">
+        <v>0.0397596097851935</v>
+      </c>
+      <c r="L24">
+        <v>0.02699819978615449</v>
+      </c>
+      <c r="M24">
+        <v>0.02699819978615449</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ZWE</t>
         </is>
       </c>
     </row>
